--- a/protocols.xlsx
+++ b/protocols.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>协议</t>
   </si>
   <si>
     <t>协议实现</t>
+  </si>
+  <si>
+    <t>RFC？</t>
   </si>
   <si>
     <t>DeepWiki？</t>
@@ -152,6 +155,12 @@
   </si>
   <si>
     <t>Lighttpd1</t>
+  </si>
+  <si>
+    <t>https://github.com/lighttpd/lighttpd1.4</t>
+  </si>
+  <si>
+    <t>Lighttpd（常被称为 Lighty）是一款专为高性能环境设计的开源轻量级 Web 服务器，它以极低的内存占用、极小的 CPU 负载和出色的并发处理能力见长。</t>
   </si>
   <si>
     <t>SMTP</t>
@@ -201,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +228,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -263,34 +278,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,21 +621,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="64.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="85.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="64.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="85.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,169 +646,203 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
